--- a/biology/Microbiologie/Neisseriales/Neisseriales.xlsx
+++ b/biology/Microbiologie/Neisseriales/Neisseriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Neisseriales forment un ordre de bactéries à gram négatif dans la classe des Pseudomonadota. Il comprend de nombreuses bactéries pathogènes telles que les Neisseria et des bactéries libres.
 </t>
@@ -511,14 +523,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lors de sa description en 2005, les Neisseriales ne comprenaient qu'une seule famille, celle des Neisseriaceae. En 2013, l'ordre a compté une deuxième famille avec la cission de la famille des Neisseriaceae en deux familles distinctes : les Neisseriaceae dont le genre type est toujours Neisseria et la famille Chromobacteriaceae dont le genre type est Chromobacterium[2].
-En 2021, une nouvelle étude phylogénétique sur un plus grand nombre de génomes complets, a proposé de scinder à nouveau les Neisseriaceae et les Chromobacteriaceae en conservant le nom de ces deux et en ajoutant 3 nouvelles familles[3]. Dans cette étude, 10 genres ont été déplacé des Chromobacteriaceae vers les autres familles ainsi que 12 genres des Neisseriaceae mais à l'heure actuelle (au 29 juillet 2022), ces transferts ne sont toujours pas validés par l'ICSP[4],[5].
-Étymologie
-L'étymologie du nom de l'ordre Chromobacteriaceae se résume ainsi : N.L. fem. n. Neisseria, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour déterminer l'ordre; N.L. fem. pl. n. Neisseriales, l'ordre des Neisseria[6].
-Familles
-En 2013, cet ordre comprend les deux familles suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description en 2005, les Neisseriales ne comprenaient qu'une seule famille, celle des Neisseriaceae. En 2013, l'ordre a compté une deuxième famille avec la cission de la famille des Neisseriaceae en deux familles distinctes : les Neisseriaceae dont le genre type est toujours Neisseria et la famille Chromobacteriaceae dont le genre type est Chromobacterium.
+En 2021, une nouvelle étude phylogénétique sur un plus grand nombre de génomes complets, a proposé de scinder à nouveau les Neisseriaceae et les Chromobacteriaceae en conservant le nom de ces deux et en ajoutant 3 nouvelles familles. Dans cette étude, 10 genres ont été déplacé des Chromobacteriaceae vers les autres familles ainsi que 12 genres des Neisseriaceae mais à l'heure actuelle (au 29 juillet 2022), ces transferts ne sont toujours pas validés par l'ICSP,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Neisseriales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neisseriales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de l'ordre Chromobacteriaceae se résume ainsi : N.L. fem. n. Neisseria, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour déterminer l'ordre; N.L. fem. pl. n. Neisseriales, l'ordre des Neisseria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neisseriales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neisseriales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2013, cet ordre comprend les deux familles suivantes :
 Neisseriaceae
 Chromobacteriaceae</t>
         </is>
